--- a/Excel/Data-cleaning/US-Presidents-Data.xlsx
+++ b/Excel/Data-cleaning/US-Presidents-Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="145">
   <si>
     <t>S.No.</t>
   </si>
@@ -432,270 +432,34 @@
     <t>President</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>Commander-in-Chief of the Continental Army</t>
-  </si>
-  <si>
-    <t>1775 - 1783</t>
-  </si>
-  <si>
-    <t>1st Vice President of the United States</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2nd Vice President of the United States</t>
-  </si>
-  <si>
     <t>Aaron Burr</t>
   </si>
   <si>
-    <t>5th United States Secretary of State</t>
-  </si>
-  <si>
-    <t>1801 - 1809</t>
-  </si>
-  <si>
     <t>George Clinton</t>
   </si>
   <si>
     <t>James Monroe</t>
   </si>
   <si>
-    <t>7th United States Secretary of State</t>
-  </si>
-  <si>
-    <t>1811 - 1817</t>
-  </si>
-  <si>
-    <t>8th United States Secretary of State</t>
-  </si>
-  <si>
-    <t>1817 - 1825</t>
-  </si>
-  <si>
-    <t>U.S. Senator ( Class 2 ) from Tennessee</t>
-  </si>
-  <si>
-    <t>1823 - 1825</t>
-  </si>
-  <si>
-    <t>8th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>United States Minister to Colombia</t>
-  </si>
-  <si>
-    <t>1828 - 1829</t>
-  </si>
-  <si>
-    <t>10th Vice President of the United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Whig  </t>
   </si>
   <si>
     <t>Office Vacant</t>
   </si>
   <si>
-    <t>9th Governor of Tennessee</t>
-  </si>
-  <si>
-    <t>1839 - 1841</t>
-  </si>
-  <si>
     <t>George M. Dallas</t>
   </si>
   <si>
-    <t>Major General of the 1st Infantry Regiment United States Army</t>
-  </si>
-  <si>
-    <t>1846 - 1849</t>
-  </si>
-  <si>
-    <t>12th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>Brigadier General of the 9th Infantry United States Army</t>
-  </si>
-  <si>
-    <t>1847 - 1848</t>
-  </si>
-  <si>
-    <t>United States Minister to the Court of St James's</t>
-  </si>
-  <si>
-    <t>1853 - 1856</t>
-  </si>
-  <si>
-    <t>U.S. Representative for Illinois' 7th District</t>
-  </si>
-  <si>
-    <t>1847 - 1849</t>
-  </si>
-  <si>
-    <t>16th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>Commanding General of the U.S. Army</t>
-  </si>
-  <si>
-    <t>1864 - 1869</t>
-  </si>
-  <si>
-    <t>29th &amp; 32nd Governor of Ohio</t>
-  </si>
-  <si>
-    <t>1868 - 1872 &amp; 1876 - 1877</t>
-  </si>
-  <si>
-    <t>U.S. Representative for Ohio's 19th District</t>
-  </si>
-  <si>
-    <t>1863 - 1881</t>
-  </si>
-  <si>
-    <t>20th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>28th Governor of New York</t>
-  </si>
-  <si>
-    <t>1883 - 1885</t>
-  </si>
-  <si>
-    <t>U.S. Senator ( Class 1 ) from Indiana</t>
-  </si>
-  <si>
-    <t>1881 - 1887</t>
-  </si>
-  <si>
-    <t>22nd President of the United States</t>
-  </si>
-  <si>
-    <t>1885 - 1889</t>
-  </si>
-  <si>
     <t>William Mckinley</t>
-  </si>
-  <si>
-    <t>39th Governor of Ohio</t>
-  </si>
-  <si>
-    <t>1892 - 1896</t>
-  </si>
-  <si>
-    <t>25th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>42nd United States Secretary of War</t>
-  </si>
-  <si>
-    <t>1904 - 1908</t>
-  </si>
-  <si>
-    <t>34th Governor of New Jersey</t>
-  </si>
-  <si>
-    <t>1911 - 1913</t>
-  </si>
-  <si>
-    <t>U.S. Senator ( Class 3 ) from Ohio</t>
-  </si>
-  <si>
-    <t>1915 - 1921</t>
-  </si>
-  <si>
-    <t>29th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>3rd United States Secretary of Commerce</t>
-  </si>
-  <si>
-    <t>1921 - 1928</t>
-  </si>
-  <si>
-    <t>44th Governor of New York</t>
-  </si>
-  <si>
-    <t>1929 - 1932</t>
-  </si>
-  <si>
-    <t>34th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>Supreme Allied Commander Europe</t>
-  </si>
-  <si>
-    <t>1949 - 1952</t>
-  </si>
-  <si>
-    <t>U.S. Senator ( Class 1 ) from Massachusetts</t>
-  </si>
-  <si>
-    <t>1953 - 1960</t>
-  </si>
-  <si>
-    <t>37th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>36th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>1953 - 1961</t>
-  </si>
-  <si>
-    <t>40th Vice President of the United States</t>
-  </si>
-  <si>
-    <t>76th Governor of Georgia</t>
-  </si>
-  <si>
-    <t>1971 - 1975</t>
-  </si>
-  <si>
-    <t>33rd Governor of California</t>
-  </si>
-  <si>
-    <t>1967 - 1975</t>
-  </si>
-  <si>
-    <t>43rd Vice President of the United States</t>
-  </si>
-  <si>
-    <t>40th &amp; 42nd Governor of Arkansas</t>
-  </si>
-  <si>
-    <t>1979 - 1981 &amp; 1983 - 1992</t>
-  </si>
-  <si>
-    <t>46th Governor of Texas</t>
-  </si>
-  <si>
-    <t>1995 - 2000</t>
-  </si>
-  <si>
-    <t>U.S. Senator ( Class 3 ) from Illinois</t>
-  </si>
-  <si>
-    <t>2005 - 2008</t>
-  </si>
-  <si>
-    <t>Chairman of The Trump Organization</t>
-  </si>
-  <si>
-    <t>1971 - present</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -704,14 +468,7 @@
     <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="180" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1168,74 +925,75 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1291,6 +1049,11 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1298,6 +1061,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="S.No."/>
+    <tableColumn id="2" name="President"/>
+    <tableColumn id="4" name="party"/>
+    <tableColumn id="5" name="vice"/>
+    <tableColumn id="6" name="salary" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1560,13 +1336,13 @@
   <sheetPr/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5555555555556" defaultRowHeight="14.4"/>
   <cols>
-    <col min="7" max="7" width="23.5555555555556" style="1"/>
+    <col min="7" max="7" width="23.5555555555556" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
@@ -1585,7 +1361,7 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
@@ -1614,13 +1390,13 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>5000</v>
       </c>
-      <c r="H2" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="H2" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I2" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1643,13 +1419,13 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>10000</v>
       </c>
-      <c r="H3" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I3" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1672,13 +1448,13 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>15000</v>
       </c>
-      <c r="H4" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I4" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1701,13 +1477,13 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>20000</v>
       </c>
-      <c r="H5" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I5" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1730,13 +1506,13 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>25000</v>
       </c>
-      <c r="H6" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I6" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1759,13 +1535,13 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>30000</v>
       </c>
-      <c r="H7" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I7" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1788,13 +1564,13 @@
       <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>35000</v>
       </c>
-      <c r="H8" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I8" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1817,13 +1593,13 @@
       <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>40000</v>
       </c>
-      <c r="H9" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I9" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1846,13 +1622,13 @@
       <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>45000</v>
       </c>
-      <c r="H10" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I10" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1875,13 +1651,13 @@
       <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>50000</v>
       </c>
-      <c r="H11" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I11" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1904,13 +1680,13 @@
       <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>55000</v>
       </c>
-      <c r="H12" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="H12" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I12" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1933,13 +1709,13 @@
       <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>60000</v>
       </c>
-      <c r="H13" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="H13" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I13" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1962,13 +1738,13 @@
       <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>65000</v>
       </c>
-      <c r="H14" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="H14" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I14" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -1991,13 +1767,13 @@
       <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>75000</v>
       </c>
-      <c r="H15" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H15" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I15" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2020,13 +1796,13 @@
       <c r="F16" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>85000</v>
       </c>
-      <c r="H16" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="H16" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I16" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2049,13 +1825,13 @@
       <c r="F17" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>95000</v>
       </c>
-      <c r="H17" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="H17" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I17" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2078,13 +1854,13 @@
       <c r="F18" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>105000</v>
       </c>
-      <c r="H18" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="H18" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I18" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2107,13 +1883,13 @@
       <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>115000</v>
       </c>
-      <c r="H19" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I19" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2136,13 +1912,13 @@
       <c r="F20" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>125000</v>
       </c>
-      <c r="H20" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="H20" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I20" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2165,13 +1941,13 @@
       <c r="F21" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>135000</v>
       </c>
-      <c r="H21" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I21" s="5">
+      <c r="H21" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I21" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2194,13 +1970,13 @@
       <c r="F22" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>145000</v>
       </c>
-      <c r="H22" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="H22" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I22" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2223,13 +1999,13 @@
       <c r="F23" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>155000</v>
       </c>
-      <c r="H23" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I23" s="5">
+      <c r="H23" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I23" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2252,13 +2028,13 @@
       <c r="F24" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>165000</v>
       </c>
-      <c r="H24" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I24" s="5">
+      <c r="H24" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I24" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2281,13 +2057,13 @@
       <c r="F25" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>175000</v>
       </c>
-      <c r="H25" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="H25" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I25" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2310,13 +2086,13 @@
       <c r="F26" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>185000</v>
       </c>
-      <c r="H26" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I26" s="5">
+      <c r="H26" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I26" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2339,13 +2115,13 @@
       <c r="F27" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>195000</v>
       </c>
-      <c r="H27" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="H27" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I27" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2368,13 +2144,13 @@
       <c r="F28" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>205000</v>
       </c>
-      <c r="H28" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="H28" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I28" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2397,13 +2173,13 @@
       <c r="F29" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>225000</v>
       </c>
-      <c r="H29" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="H29" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I29" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2426,13 +2202,13 @@
       <c r="F30" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>225000</v>
       </c>
-      <c r="H30" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I30" s="5">
+      <c r="H30" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I30" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2455,13 +2231,13 @@
       <c r="F31" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>235000</v>
       </c>
-      <c r="H31" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="H31" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I31" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2484,13 +2260,13 @@
       <c r="F32" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="5">
         <v>245000</v>
       </c>
-      <c r="H32" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I32" s="5">
+      <c r="H32" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I32" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2513,13 +2289,13 @@
       <c r="F33" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="5">
         <v>255000</v>
       </c>
-      <c r="H33" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I33" s="5">
+      <c r="H33" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I33" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2542,13 +2318,13 @@
       <c r="F34" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="5">
         <v>265000</v>
       </c>
-      <c r="H34" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="H34" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I34" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2571,13 +2347,13 @@
       <c r="F35" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="5">
         <v>275000</v>
       </c>
-      <c r="H35" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="H35" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I35" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2600,13 +2376,13 @@
       <c r="F36" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="5">
         <v>285000</v>
       </c>
-      <c r="H36" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="H36" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I36" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2629,13 +2405,13 @@
       <c r="F37" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="5">
         <v>295000</v>
       </c>
-      <c r="H37" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="H37" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I37" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2658,13 +2434,13 @@
       <c r="F38" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="5">
         <v>305000</v>
       </c>
-      <c r="H38" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="H38" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I38" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2687,13 +2463,13 @@
       <c r="F39" t="s">
         <v>113</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="5">
         <v>315000</v>
       </c>
-      <c r="H39" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="H39" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I39" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2716,13 +2492,13 @@
       <c r="F40" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="5">
         <v>325000</v>
       </c>
-      <c r="H40" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I40" s="5">
+      <c r="H40" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I40" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2745,13 +2521,13 @@
       <c r="F41" t="s">
         <v>118</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="5">
         <v>335000</v>
       </c>
-      <c r="H41" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="H41" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I41" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2774,13 +2550,13 @@
       <c r="F42" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="5">
         <v>345000</v>
       </c>
-      <c r="H42" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="H42" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I42" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2803,13 +2579,13 @@
       <c r="F43" t="s">
         <v>123</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="5">
         <v>355000</v>
       </c>
-      <c r="H43" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="H43" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I43" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2832,13 +2608,13 @@
       <c r="F44" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="5">
         <v>365000</v>
       </c>
-      <c r="H44" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I44" s="5">
+      <c r="H44" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I44" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2861,13 +2637,13 @@
       <c r="F45" t="s">
         <v>129</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="5">
         <v>375000</v>
       </c>
-      <c r="H45" s="5">
-        <v>44391</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="H45" s="6">
+        <v>44391</v>
+      </c>
+      <c r="I45" s="6">
         <v>40972</v>
       </c>
     </row>
@@ -2890,13 +2666,13 @@
       <c r="F46" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="5">
         <v>395000</v>
       </c>
-      <c r="H46" s="6">
-        <v>44391</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="H46" s="7">
+        <v>44391</v>
+      </c>
+      <c r="I46" s="7">
         <v>43862</v>
       </c>
     </row>
@@ -2919,13 +2695,13 @@
       <c r="F47" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="5">
         <v>395000</v>
       </c>
-      <c r="H47" s="6">
-        <v>44391</v>
-      </c>
-      <c r="I47" s="6">
+      <c r="H47" s="7">
+        <v>44391</v>
+      </c>
+      <c r="I47" s="7">
         <v>43862</v>
       </c>
     </row>
@@ -2948,13 +2724,13 @@
       <c r="F48" t="s">
         <v>136</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="5">
         <v>405000</v>
       </c>
-      <c r="H48" s="6">
-        <v>44391</v>
-      </c>
-      <c r="I48" s="6">
+      <c r="H48" s="7">
+        <v>44391</v>
+      </c>
+      <c r="I48" s="7">
         <v>43862</v>
       </c>
     </row>
@@ -2971,7 +2747,7 @@
   <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3012,7 +2788,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -3038,13 +2814,13 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>5000</v>
       </c>
-      <c r="G2" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H2" s="6">
         <v>40972</v>
       </c>
       <c r="M2" t="str">
@@ -3104,13 +2880,13 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>10000</v>
       </c>
-      <c r="G3" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H3" s="6">
         <v>40972</v>
       </c>
       <c r="M3" t="str">
@@ -3170,13 +2946,13 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>15000</v>
       </c>
-      <c r="G4" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H4" s="6">
         <v>40972</v>
       </c>
       <c r="M4" t="str">
@@ -3236,13 +3012,13 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>20000</v>
       </c>
-      <c r="G5" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H5" s="6">
         <v>40972</v>
       </c>
       <c r="M5" t="str">
@@ -3302,13 +3078,13 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>25000</v>
       </c>
-      <c r="G6" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H6" s="6">
         <v>40972</v>
       </c>
       <c r="M6" t="str">
@@ -3368,13 +3144,13 @@
       <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>30000</v>
       </c>
-      <c r="G7" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H7" s="6">
         <v>40972</v>
       </c>
       <c r="M7" t="str">
@@ -3434,13 +3210,13 @@
       <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>35000</v>
       </c>
-      <c r="G8" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H8" s="6">
         <v>40972</v>
       </c>
       <c r="M8" t="str">
@@ -3500,13 +3276,13 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>40000</v>
       </c>
-      <c r="G9" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H9" s="6">
         <v>40972</v>
       </c>
       <c r="M9" t="str">
@@ -3566,13 +3342,13 @@
       <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>45000</v>
       </c>
-      <c r="G10" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H10" s="6">
         <v>40972</v>
       </c>
       <c r="M10" t="str">
@@ -3632,13 +3408,13 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>50000</v>
       </c>
-      <c r="G11" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H11" s="6">
         <v>40972</v>
       </c>
       <c r="M11" t="str">
@@ -3698,13 +3474,13 @@
       <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>55000</v>
       </c>
-      <c r="G12" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="G12" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H12" s="6">
         <v>40972</v>
       </c>
       <c r="M12" t="str">
@@ -3764,13 +3540,13 @@
       <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>60000</v>
       </c>
-      <c r="G13" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="G13" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H13" s="6">
         <v>40972</v>
       </c>
       <c r="M13" t="str">
@@ -3830,13 +3606,13 @@
       <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>65000</v>
       </c>
-      <c r="G14" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H14" s="6">
         <v>40972</v>
       </c>
       <c r="M14" t="str">
@@ -3896,13 +3672,13 @@
       <c r="E15" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>75000</v>
       </c>
-      <c r="G15" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="G15" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H15" s="6">
         <v>40972</v>
       </c>
       <c r="M15" t="str">
@@ -3962,13 +3738,13 @@
       <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>85000</v>
       </c>
-      <c r="G16" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H16" s="5">
+      <c r="G16" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H16" s="6">
         <v>40972</v>
       </c>
       <c r="M16" t="str">
@@ -4028,13 +3804,13 @@
       <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <v>95000</v>
       </c>
-      <c r="G17" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H17" s="5">
+      <c r="G17" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H17" s="6">
         <v>40972</v>
       </c>
       <c r="M17" t="str">
@@ -4094,13 +3870,13 @@
       <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>105000</v>
       </c>
-      <c r="G18" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H18" s="6">
         <v>40972</v>
       </c>
       <c r="M18" t="str">
@@ -4160,13 +3936,13 @@
       <c r="E19" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>115000</v>
       </c>
-      <c r="G19" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="G19" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H19" s="6">
         <v>40972</v>
       </c>
       <c r="M19" t="str">
@@ -4226,13 +4002,13 @@
       <c r="E20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>125000</v>
       </c>
-      <c r="G20" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="G20" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H20" s="6">
         <v>40972</v>
       </c>
       <c r="M20" t="str">
@@ -4292,13 +4068,13 @@
       <c r="E21" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>135000</v>
       </c>
-      <c r="G21" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="G21" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H21" s="6">
         <v>40972</v>
       </c>
       <c r="M21" t="str">
@@ -4358,13 +4134,13 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <v>145000</v>
       </c>
-      <c r="G22" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="G22" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H22" s="6">
         <v>40972</v>
       </c>
       <c r="M22" t="str">
@@ -4424,13 +4200,13 @@
       <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>155000</v>
       </c>
-      <c r="G23" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H23" s="5">
+      <c r="G23" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H23" s="6">
         <v>40972</v>
       </c>
       <c r="M23" t="str">
@@ -4490,13 +4266,13 @@
       <c r="E24" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <v>165000</v>
       </c>
-      <c r="G24" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="G24" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H24" s="6">
         <v>40972</v>
       </c>
       <c r="M24" t="str">
@@ -4556,13 +4332,13 @@
       <c r="E25" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>175000</v>
       </c>
-      <c r="G25" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="G25" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H25" s="6">
         <v>40972</v>
       </c>
       <c r="M25" t="str">
@@ -4622,13 +4398,13 @@
       <c r="E26" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <v>185000</v>
       </c>
-      <c r="G26" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="G26" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H26" s="6">
         <v>40972</v>
       </c>
       <c r="M26" t="str">
@@ -4688,13 +4464,13 @@
       <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <v>195000</v>
       </c>
-      <c r="G27" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H27" s="5">
+      <c r="G27" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H27" s="6">
         <v>40972</v>
       </c>
       <c r="M27" t="str">
@@ -4754,13 +4530,13 @@
       <c r="E28" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <v>205000</v>
       </c>
-      <c r="G28" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H28" s="5">
+      <c r="G28" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H28" s="6">
         <v>40972</v>
       </c>
       <c r="M28" t="str">
@@ -4820,13 +4596,13 @@
       <c r="E29" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <v>225000</v>
       </c>
-      <c r="G29" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H29" s="5">
+      <c r="G29" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H29" s="6">
         <v>40972</v>
       </c>
       <c r="M29" t="str">
@@ -4872,60 +4648,60 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="4">
-        <v>225000</v>
-      </c>
-      <c r="G30" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H30" s="5">
+        <v>95</v>
+      </c>
+      <c r="F30" s="5">
+        <v>235000</v>
+      </c>
+      <c r="G30" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H30" s="6">
         <v>40972</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="0"/>
-        <v>Woodrow Wilson</v>
+        <v>Warren G. Harding</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
-        <v>34th Governor of New Jersey (1911 - 1913)</v>
+        <v>U.S. Senator ( Class 3 ) from Ohio (1915 - 1921)</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="2"/>
-        <v>(1911 - 1913)</v>
+        <v>(1915 - 1921)</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="3"/>
-        <v>34th Governor of New Jersey</v>
+        <v>U.S. Senator ( Class 3 ) from Ohio</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" si="4"/>
-        <v>1911 - 1913</v>
+        <v>1915 - 1921</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="5"/>
-        <v>Demorcatic</v>
+        <v>Republican</v>
       </c>
       <c r="S30" t="str">
         <f t="shared" si="6"/>
-        <v>Thomas R. Marshall</v>
+        <v>Calvin Coolidge</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" si="7"/>
-        <v>225000</v>
+        <v>235000</v>
       </c>
       <c r="U30" s="3">
         <f t="shared" si="8"/>
@@ -4938,48 +4714,48 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="4">
-        <v>235000</v>
-      </c>
-      <c r="G31" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H31" s="5">
+        <v>42</v>
+      </c>
+      <c r="F31" s="5">
+        <v>245000</v>
+      </c>
+      <c r="G31" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H31" s="6">
         <v>40972</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="0"/>
-        <v>Warren G. Harding</v>
+        <v>Calvin Coolidge</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="1"/>
-        <v>U.S. Senator ( Class 3 ) from Ohio (1915 - 1921)</v>
+        <v>29th Vice President of the United States</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="2"/>
-        <v>(1915 - 1921)</v>
+        <v/>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="3"/>
-        <v>U.S. Senator ( Class 3 ) from Ohio</v>
+        <v>29th Vice President of the United States</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="4"/>
-        <v>1915 - 1921</v>
+        <v/>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="5"/>
@@ -4987,11 +4763,11 @@
       </c>
       <c r="S31" t="str">
         <f t="shared" si="6"/>
-        <v>Calvin Coolidge</v>
+        <v>Office Vacant</v>
       </c>
       <c r="T31" s="2">
         <f t="shared" si="7"/>
-        <v>235000</v>
+        <v>245000</v>
       </c>
       <c r="U31" s="3">
         <f t="shared" si="8"/>
@@ -5004,48 +4780,48 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
         <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="4">
-        <v>245000</v>
-      </c>
-      <c r="G32" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H32" s="5">
+        <v>99</v>
+      </c>
+      <c r="F32" s="5">
+        <v>255000</v>
+      </c>
+      <c r="G32" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H32" s="6">
         <v>40972</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="0"/>
-        <v>Calvin Coolidge</v>
+        <v>Herbert Hoover</v>
       </c>
       <c r="N32" t="str">
         <f t="shared" si="1"/>
-        <v>29th Vice President of the United States</v>
+        <v>3rd United States Secretary of Commerce (1921 - 1928)</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>(1921 - 1928)</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="3"/>
-        <v>29th Vice President of the United States</v>
+        <v>3rd United States Secretary of Commerce</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1921 - 1928</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" si="5"/>
@@ -5053,11 +4829,11 @@
       </c>
       <c r="S32" t="str">
         <f t="shared" si="6"/>
-        <v>Office Vacant</v>
+        <v>Charles Curtis</v>
       </c>
       <c r="T32" s="2">
         <f t="shared" si="7"/>
-        <v>245000</v>
+        <v>255000</v>
       </c>
       <c r="U32" s="3">
         <f t="shared" si="8"/>
@@ -5070,60 +4846,60 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="4">
-        <v>255000</v>
-      </c>
-      <c r="G33" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H33" s="5">
+        <v>102</v>
+      </c>
+      <c r="F33" s="5">
+        <v>265000</v>
+      </c>
+      <c r="G33" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H33" s="6">
         <v>40972</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="0"/>
-        <v>Herbert Hoover</v>
+        <v>Franklin D. Roosevelt</v>
       </c>
       <c r="N33" t="str">
         <f t="shared" si="1"/>
-        <v>3rd United States Secretary of Commerce (1921 - 1928)</v>
+        <v>44th Governor of New York ( 1929 - 1932 )</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="2"/>
-        <v>(1921 - 1928)</v>
+        <v>( 1929 - 1932 )</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="3"/>
-        <v>3rd United States Secretary of Commerce</v>
+        <v>44th Governor of New York</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="4"/>
-        <v>1921 - 1928</v>
+        <v>1929 - 1932</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" si="5"/>
-        <v>Republican</v>
+        <v>Democratic</v>
       </c>
       <c r="S33" t="str">
         <f t="shared" si="6"/>
-        <v>Charles Curtis</v>
+        <v>John Nance Garner</v>
       </c>
       <c r="T33" s="2">
         <f t="shared" si="7"/>
-        <v>255000</v>
+        <v>265000</v>
       </c>
       <c r="U33" s="3">
         <f t="shared" si="8"/>
@@ -5136,48 +4912,48 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
         <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="4">
-        <v>265000</v>
-      </c>
-      <c r="G34" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H34" s="5">
+        <v>42</v>
+      </c>
+      <c r="F34" s="5">
+        <v>275000</v>
+      </c>
+      <c r="G34" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H34" s="6">
         <v>40972</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="0"/>
-        <v>Franklin D. Roosevelt</v>
+        <v>Harry S. Truman</v>
       </c>
       <c r="N34" t="str">
         <f t="shared" si="1"/>
-        <v>44th Governor of New York ( 1929 - 1932 )</v>
+        <v>34th Vice President of the United States</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="2"/>
-        <v>( 1929 - 1932 )</v>
+        <v/>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="3"/>
-        <v>44th Governor of New York</v>
+        <v>34th Vice President of the United States</v>
       </c>
       <c r="Q34" t="str">
         <f t="shared" si="4"/>
-        <v>1929 - 1932</v>
+        <v/>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="5"/>
@@ -5185,11 +4961,11 @@
       </c>
       <c r="S34" t="str">
         <f t="shared" si="6"/>
-        <v>John Nance Garner</v>
+        <v>Office Vacant</v>
       </c>
       <c r="T34" s="2">
         <f t="shared" si="7"/>
-        <v>265000</v>
+        <v>275000</v>
       </c>
       <c r="U34" s="3">
         <f t="shared" si="8"/>
@@ -5202,60 +4978,60 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="4">
-        <v>275000</v>
-      </c>
-      <c r="G35" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H35" s="5">
+        <v>107</v>
+      </c>
+      <c r="F35" s="5">
+        <v>285000</v>
+      </c>
+      <c r="G35" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H35" s="6">
         <v>40972</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="0"/>
-        <v>Harry S. Truman</v>
+        <v>Dwight D. Eisenhower</v>
       </c>
       <c r="N35" t="str">
         <f t="shared" si="1"/>
-        <v>34th Vice President of the United States</v>
+        <v>Supreme Allied Commander Europe ( 1949 - 1952 )</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>( 1949 - 1952 )</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="3"/>
-        <v>34th Vice President of the United States</v>
+        <v>Supreme Allied Commander Europe</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1949 - 1952</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" si="5"/>
-        <v>Democratic</v>
+        <v>Republican</v>
       </c>
       <c r="S35" t="str">
         <f t="shared" si="6"/>
-        <v>Office Vacant</v>
+        <v>Richard Nixon</v>
       </c>
       <c r="T35" s="2">
         <f t="shared" si="7"/>
-        <v>275000</v>
+        <v>285000</v>
       </c>
       <c r="U35" s="3">
         <f t="shared" si="8"/>
@@ -5268,60 +5044,60 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="4">
-        <v>285000</v>
-      </c>
-      <c r="G36" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H36" s="5">
+        <v>110</v>
+      </c>
+      <c r="F36" s="5">
+        <v>295000</v>
+      </c>
+      <c r="G36" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H36" s="6">
         <v>40972</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="0"/>
-        <v>Dwight D. Eisenhower</v>
+        <v>John F. Kennedy</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" si="1"/>
-        <v>Supreme Allied Commander Europe ( 1949 - 1952 )</v>
+        <v>U.S. Senator ( Class 1 ) from Massachusetts (1953 - 1960)</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="2"/>
-        <v>( 1949 - 1952 )</v>
+        <v>(1953 - 1960)</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="3"/>
-        <v>Supreme Allied Commander Europe</v>
+        <v>U.S. Senator ( Class 1 ) from Massachusetts</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="4"/>
-        <v>1949 - 1952</v>
+        <v>1953 - 1960</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" si="5"/>
-        <v>Republican</v>
+        <v>Democratic</v>
       </c>
       <c r="S36" t="str">
         <f t="shared" si="6"/>
-        <v>Richard Nixon</v>
+        <v>Lyndon B. Johnson</v>
       </c>
       <c r="T36" s="2">
         <f t="shared" si="7"/>
-        <v>285000</v>
+        <v>295000</v>
       </c>
       <c r="U36" s="3">
         <f t="shared" si="8"/>
@@ -5334,48 +5110,48 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="4">
-        <v>295000</v>
-      </c>
-      <c r="G37" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H37" s="5">
+        <v>42</v>
+      </c>
+      <c r="F37" s="5">
+        <v>305000</v>
+      </c>
+      <c r="G37" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H37" s="6">
         <v>40972</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" si="0"/>
-        <v>John F. Kennedy</v>
+        <v>Lyndon B. Johnson</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="1"/>
-        <v>U.S. Senator ( Class 1 ) from Massachusetts (1953 - 1960)</v>
+        <v>37th Vice President of the United States</v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="2"/>
-        <v>(1953 - 1960)</v>
+        <v/>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="3"/>
-        <v>U.S. Senator ( Class 1 ) from Massachusetts</v>
+        <v>37th Vice President of the United States</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="4"/>
-        <v>1953 - 1960</v>
+        <v/>
       </c>
       <c r="R37" t="str">
         <f t="shared" si="5"/>
@@ -5383,11 +5159,11 @@
       </c>
       <c r="S37" t="str">
         <f t="shared" si="6"/>
-        <v>Lyndon B. Johnson</v>
+        <v>Office Vacant</v>
       </c>
       <c r="T37" s="2">
         <f t="shared" si="7"/>
-        <v>295000</v>
+        <v>305000</v>
       </c>
       <c r="U37" s="3">
         <f t="shared" si="8"/>
@@ -5400,60 +5176,60 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="4">
-        <v>305000</v>
-      </c>
-      <c r="G38" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H38" s="5">
+        <v>113</v>
+      </c>
+      <c r="F38" s="5">
+        <v>315000</v>
+      </c>
+      <c r="G38" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H38" s="6">
         <v>40972</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="0"/>
-        <v>Lyndon B. Johnson</v>
+        <v>Richard Nixon</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="1"/>
-        <v>37th Vice President of the United States</v>
+        <v>36th Vice President of the United States (1953 - 1961)</v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>(1953 - 1961)</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="3"/>
-        <v>37th Vice President of the United States</v>
+        <v>36th Vice President of the United States</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1953 - 1961</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" si="5"/>
-        <v>Democratic</v>
+        <v>Republican</v>
       </c>
       <c r="S38" t="str">
         <f t="shared" si="6"/>
-        <v>Office Vacant</v>
+        <v>Spiro Agnew</v>
       </c>
       <c r="T38" s="2">
         <f t="shared" si="7"/>
-        <v>305000</v>
+        <v>315000</v>
       </c>
       <c r="U38" s="3">
         <f t="shared" si="8"/>
@@ -5466,48 +5242,48 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
         <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" s="4">
-        <v>315000</v>
-      </c>
-      <c r="G39" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H39" s="5">
+        <v>42</v>
+      </c>
+      <c r="F39" s="5">
+        <v>325000</v>
+      </c>
+      <c r="G39" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H39" s="6">
         <v>40972</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="0"/>
-        <v>Richard Nixon</v>
+        <v>Gerald Ford</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="1"/>
-        <v>36th Vice President of the United States (1953 - 1961)</v>
+        <v>40th Vice President of the United States</v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="2"/>
-        <v>(1953 - 1961)</v>
+        <v/>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="3"/>
-        <v>36th Vice President of the United States</v>
+        <v>40th Vice President of the United States</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" si="4"/>
-        <v>1953 - 1961</v>
+        <v/>
       </c>
       <c r="R39" t="str">
         <f t="shared" si="5"/>
@@ -5515,11 +5291,11 @@
       </c>
       <c r="S39" t="str">
         <f t="shared" si="6"/>
-        <v>Spiro Agnew</v>
+        <v>Office Vacant</v>
       </c>
       <c r="T39" s="2">
         <f t="shared" si="7"/>
-        <v>315000</v>
+        <v>325000</v>
       </c>
       <c r="U39" s="3">
         <f t="shared" si="8"/>
@@ -5532,60 +5308,60 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="4">
-        <v>325000</v>
-      </c>
-      <c r="G40" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H40" s="5">
+        <v>118</v>
+      </c>
+      <c r="F40" s="5">
+        <v>335000</v>
+      </c>
+      <c r="G40" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H40" s="6">
         <v>40972</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="0"/>
-        <v>Gerald Ford</v>
+        <v>Jimmy Carter</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="1"/>
-        <v>40th Vice President of the United States</v>
+        <v>76th Governor of Georgia (1971 - 1975)</v>
       </c>
       <c r="O40" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>(1971 - 1975)</v>
       </c>
       <c r="P40" t="str">
         <f t="shared" si="3"/>
-        <v>40th Vice President of the United States</v>
+        <v>76th Governor of Georgia</v>
       </c>
       <c r="Q40" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1971 - 1975</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" si="5"/>
-        <v>Republican</v>
+        <v>Democratic</v>
       </c>
       <c r="S40" t="str">
         <f t="shared" si="6"/>
-        <v>Office Vacant</v>
+        <v>Walter Mondale</v>
       </c>
       <c r="T40" s="2">
         <f t="shared" si="7"/>
-        <v>325000</v>
+        <v>335000</v>
       </c>
       <c r="U40" s="3">
         <f t="shared" si="8"/>
@@ -5598,60 +5374,60 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="4">
-        <v>335000</v>
-      </c>
-      <c r="G41" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H41" s="5">
+        <v>121</v>
+      </c>
+      <c r="F41" s="5">
+        <v>345000</v>
+      </c>
+      <c r="G41" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H41" s="6">
         <v>40972</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="0"/>
-        <v>Jimmy Carter</v>
+        <v>Ronald Reagan</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="1"/>
-        <v>76th Governor of Georgia (1971 - 1975)</v>
+        <v>33rd Governor of California ( 1967 - 1975 )</v>
       </c>
       <c r="O41" t="str">
         <f t="shared" si="2"/>
-        <v>(1971 - 1975)</v>
+        <v>( 1967 - 1975 )</v>
       </c>
       <c r="P41" t="str">
         <f t="shared" si="3"/>
-        <v>76th Governor of Georgia</v>
+        <v>33rd Governor of California</v>
       </c>
       <c r="Q41" t="str">
         <f t="shared" si="4"/>
-        <v>1971 - 1975</v>
+        <v>1967 - 1975</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" si="5"/>
-        <v>Democratic</v>
+        <v>Republican</v>
       </c>
       <c r="S41" t="str">
         <f t="shared" si="6"/>
-        <v>Walter Mondale</v>
+        <v>George H. W. Bush</v>
       </c>
       <c r="T41" s="2">
         <f t="shared" si="7"/>
-        <v>335000</v>
+        <v>345000</v>
       </c>
       <c r="U41" s="3">
         <f t="shared" si="8"/>
@@ -5664,48 +5440,48 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="4">
-        <v>345000</v>
-      </c>
-      <c r="G42" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H42" s="5">
+        <v>123</v>
+      </c>
+      <c r="F42" s="5">
+        <v>355000</v>
+      </c>
+      <c r="G42" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H42" s="6">
         <v>40972</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="0"/>
-        <v>Ronald Reagan</v>
+        <v>George H. W. Bush</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="1"/>
-        <v>33rd Governor of California ( 1967 - 1975 )</v>
+        <v>43rd Vice President of the United States</v>
       </c>
       <c r="O42" t="str">
         <f t="shared" si="2"/>
-        <v>( 1967 - 1975 )</v>
+        <v/>
       </c>
       <c r="P42" t="str">
         <f t="shared" si="3"/>
-        <v>33rd Governor of California</v>
+        <v>43rd Vice President of the United States</v>
       </c>
       <c r="Q42" t="str">
         <f t="shared" si="4"/>
-        <v>1967 - 1975</v>
+        <v/>
       </c>
       <c r="R42" t="str">
         <f t="shared" si="5"/>
@@ -5713,11 +5489,11 @@
       </c>
       <c r="S42" t="str">
         <f t="shared" si="6"/>
-        <v>George H. W. Bush</v>
+        <v>Dan Quayle</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" si="7"/>
-        <v>345000</v>
+        <v>355000</v>
       </c>
       <c r="U42" s="3">
         <f t="shared" si="8"/>
@@ -5730,60 +5506,60 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
-      </c>
-      <c r="F43" s="4">
-        <v>355000</v>
-      </c>
-      <c r="G43" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H43" s="5">
+        <v>126</v>
+      </c>
+      <c r="F43" s="5">
+        <v>365000</v>
+      </c>
+      <c r="G43" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H43" s="6">
         <v>40972</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="0"/>
-        <v>George H. W. Bush</v>
+        <v>Bill Clinton</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="1"/>
-        <v>43rd Vice President of the United States</v>
+        <v>40th &amp; 42nd Governor of Arkansas (1979 - 1981 &amp; 1983 - 1992)</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>(1979 - 1981 &amp; 1983 - 1992)</v>
       </c>
       <c r="P43" t="str">
         <f t="shared" si="3"/>
-        <v>43rd Vice President of the United States</v>
+        <v>40th &amp; 42nd Governor of Arkansas</v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1979 - 1981 &amp; 1983 - 1992</v>
       </c>
       <c r="R43" t="str">
         <f t="shared" si="5"/>
-        <v>Republican</v>
+        <v>Democratic</v>
       </c>
       <c r="S43" t="str">
         <f t="shared" si="6"/>
-        <v>Dan Quayle</v>
+        <v>Al Gore</v>
       </c>
       <c r="T43" s="2">
         <f t="shared" si="7"/>
-        <v>355000</v>
+        <v>365000</v>
       </c>
       <c r="U43" s="3">
         <f t="shared" si="8"/>
@@ -5796,60 +5572,60 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="4">
-        <v>365000</v>
-      </c>
-      <c r="G44" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H44" s="5">
+        <v>129</v>
+      </c>
+      <c r="F44" s="5">
+        <v>375000</v>
+      </c>
+      <c r="G44" s="6">
+        <v>44391</v>
+      </c>
+      <c r="H44" s="6">
         <v>40972</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="0"/>
-        <v>Bill Clinton</v>
+        <v>George W. Bush</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="1"/>
-        <v>40th &amp; 42nd Governor of Arkansas (1979 - 1981 &amp; 1983 - 1992)</v>
+        <v>46th Governor of Texas ( 1995 - 2000 )</v>
       </c>
       <c r="O44" t="str">
         <f t="shared" si="2"/>
-        <v>(1979 - 1981 &amp; 1983 - 1992)</v>
+        <v>( 1995 - 2000 )</v>
       </c>
       <c r="P44" t="str">
         <f t="shared" si="3"/>
-        <v>40th &amp; 42nd Governor of Arkansas</v>
+        <v>46th Governor of Texas</v>
       </c>
       <c r="Q44" t="str">
         <f t="shared" si="4"/>
-        <v>1979 - 1981 &amp; 1983 - 1992</v>
+        <v>1995 - 2000</v>
       </c>
       <c r="R44" t="str">
         <f t="shared" si="5"/>
-        <v>Democratic</v>
+        <v>Republican</v>
       </c>
       <c r="S44" t="str">
         <f t="shared" si="6"/>
-        <v>Al Gore</v>
+        <v>Dick Cheney</v>
       </c>
       <c r="T44" s="2">
         <f t="shared" si="7"/>
-        <v>365000</v>
+        <v>375000</v>
       </c>
       <c r="U44" s="3">
         <f t="shared" si="8"/>
@@ -5862,60 +5638,60 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="4">
-        <v>375000</v>
-      </c>
-      <c r="G45" s="5">
-        <v>44391</v>
-      </c>
-      <c r="H45" s="5">
-        <v>40972</v>
+        <v>132</v>
+      </c>
+      <c r="F45" s="5">
+        <v>395000</v>
+      </c>
+      <c r="G45" s="7">
+        <v>44391</v>
+      </c>
+      <c r="H45" s="7">
+        <v>43862</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="0"/>
-        <v>George W. Bush</v>
+        <v>Barack Obama</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="1"/>
-        <v>46th Governor of Texas ( 1995 - 2000 )</v>
+        <v>U.S. Senator ( Class 3 ) from Illinois ( 2005 - 2008 )</v>
       </c>
       <c r="O45" t="str">
         <f t="shared" si="2"/>
-        <v>( 1995 - 2000 )</v>
+        <v>( 2005 - 2008 )</v>
       </c>
       <c r="P45" t="str">
         <f t="shared" si="3"/>
-        <v>46th Governor of Texas</v>
+        <v>U.S. Senator ( Class 3 ) from Illinois</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" si="4"/>
-        <v>1995 - 2000</v>
+        <v>2005 - 2008</v>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="5"/>
-        <v>Republican</v>
+        <v>Democratic</v>
       </c>
       <c r="S45" t="str">
         <f t="shared" si="6"/>
-        <v>Dick Cheney</v>
+        <v>Joe Biden</v>
       </c>
       <c r="T45" s="2">
         <f t="shared" si="7"/>
-        <v>375000</v>
+        <v>395000</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" si="8"/>
@@ -5923,65 +5699,65 @@
       </c>
       <c r="V45" s="3">
         <f t="shared" si="9"/>
-        <v>40972</v>
+        <v>43862</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="4">
-        <v>395000</v>
-      </c>
-      <c r="G46" s="6">
-        <v>44391</v>
-      </c>
-      <c r="H46" s="6">
+        <v>136</v>
+      </c>
+      <c r="F46" s="5">
+        <v>405000</v>
+      </c>
+      <c r="G46" s="7">
+        <v>44391</v>
+      </c>
+      <c r="H46" s="7">
         <v>43862</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="0"/>
-        <v>Barack Obama</v>
+        <v>Donald Trump</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="1"/>
-        <v>U.S. Senator ( Class 3 ) from Illinois ( 2005 - 2008 )</v>
+        <v>Chairman of The Trump Organization ( 1971 - present )</v>
       </c>
       <c r="O46" t="str">
         <f t="shared" si="2"/>
-        <v>( 2005 - 2008 )</v>
+        <v>( 1971 - present )</v>
       </c>
       <c r="P46" t="str">
         <f t="shared" si="3"/>
-        <v>U.S. Senator ( Class 3 ) from Illinois</v>
+        <v>Chairman of The Trump Organization</v>
       </c>
       <c r="Q46" t="str">
         <f t="shared" si="4"/>
-        <v>2005 - 2008</v>
+        <v>1971 - present</v>
       </c>
       <c r="R46" t="str">
         <f t="shared" si="5"/>
-        <v>Democratic</v>
+        <v>Republican</v>
       </c>
       <c r="S46" t="str">
         <f t="shared" si="6"/>
-        <v>Joe Biden</v>
+        <v>Mike Pence</v>
       </c>
       <c r="T46" s="2">
         <f t="shared" si="7"/>
-        <v>395000</v>
+        <v>405000</v>
       </c>
       <c r="U46" s="3">
         <f t="shared" si="8"/>
@@ -5992,70 +5768,46 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="4">
-        <v>405000</v>
-      </c>
-      <c r="G47" s="6">
-        <v>44391</v>
-      </c>
-      <c r="H47" s="6">
-        <v>43862</v>
-      </c>
+    <row r="47" spans="13:22">
       <c r="M47" t="str">
         <f t="shared" si="0"/>
-        <v>Donald Trump</v>
+        <v/>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="1"/>
-        <v>Chairman of The Trump Organization ( 1971 - present )</v>
+        <v/>
       </c>
       <c r="O47" t="str">
         <f t="shared" si="2"/>
-        <v>( 1971 - present )</v>
+        <v/>
       </c>
       <c r="P47" t="str">
         <f t="shared" si="3"/>
-        <v>Chairman of The Trump Organization</v>
+        <v/>
       </c>
       <c r="Q47" t="str">
         <f t="shared" si="4"/>
-        <v>1971 - present</v>
+        <v/>
       </c>
       <c r="R47" t="str">
         <f t="shared" si="5"/>
-        <v>Republican</v>
+        <v>0</v>
       </c>
       <c r="S47" t="str">
         <f t="shared" si="6"/>
-        <v>Mike Pence</v>
+        <v/>
       </c>
       <c r="T47" s="2">
         <f t="shared" si="7"/>
-        <v>405000</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <f t="shared" si="8"/>
-        <v>44391</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <f t="shared" si="9"/>
-        <v>43862</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6067,25 +5819,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="63.6574074074074" customWidth="1"/>
-    <col min="4" max="4" width="34.7407407407407" customWidth="1"/>
-    <col min="5" max="5" width="46.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="35.2685185185185" customWidth="1"/>
-    <col min="7" max="7" width="23.1018518518519" customWidth="1"/>
-    <col min="8" max="8" width="21.8703703703704" customWidth="1"/>
-    <col min="9" max="9" width="23.0925925925926" customWidth="1"/>
+    <col min="3" max="3" width="46.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="35.2685185185185" customWidth="1"/>
+    <col min="5" max="5" width="23.1018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6093,28 +5841,16 @@
         <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6122,28 +5858,16 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
+      <c r="E2" s="2">
         <v>5000</v>
       </c>
-      <c r="H2" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I2" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6151,28 +5875,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2">
+      <c r="E3" s="2">
         <v>10000</v>
       </c>
-      <c r="H3" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I3" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6180,28 +5892,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" s="2">
+        <v>138</v>
+      </c>
+      <c r="E4" s="2">
         <v>15000</v>
       </c>
-      <c r="H4" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I4" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6209,57 +5909,33 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="2">
+        <v>139</v>
+      </c>
+      <c r="E5" s="2">
         <v>20000</v>
       </c>
-      <c r="H5" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I5" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="E6" s="2">
         <v>25000</v>
       </c>
-      <c r="H6" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I6" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6267,28 +5943,16 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="2">
+      <c r="E7" s="2">
         <v>30000</v>
       </c>
-      <c r="H7" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I7" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6296,28 +5960,16 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="2">
+      <c r="E8" s="2">
         <v>35000</v>
       </c>
-      <c r="H8" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I8" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6325,28 +5977,16 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="2">
+      <c r="E9" s="2">
         <v>40000</v>
       </c>
-      <c r="H9" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I9" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6354,28 +5994,16 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="2">
+      <c r="E10" s="2">
         <v>45000</v>
       </c>
-      <c r="H10" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I10" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6383,28 +6011,16 @@
         <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
         <v>142</v>
       </c>
-      <c r="E11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="E11" s="2">
         <v>50000</v>
       </c>
-      <c r="H11" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I11" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6412,28 +6028,16 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="2">
+        <v>143</v>
+      </c>
+      <c r="E12" s="2">
         <v>55000</v>
       </c>
-      <c r="H12" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I12" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6441,28 +6045,16 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="2">
+      <c r="E13" s="2">
         <v>60000</v>
       </c>
-      <c r="H13" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I13" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6470,28 +6062,16 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
         <v>142</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="E14" s="2">
         <v>65000</v>
       </c>
-      <c r="H14" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I14" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6499,28 +6079,16 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="2">
+      <c r="E15" s="2">
         <v>75000</v>
       </c>
-      <c r="H15" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I15" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6528,28 +6096,16 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="2">
+      <c r="E16" s="2">
         <v>85000</v>
       </c>
-      <c r="H16" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I16" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6557,28 +6113,16 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
-      </c>
-      <c r="E17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="2">
+      <c r="E17" s="2">
         <v>95000</v>
       </c>
-      <c r="H17" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I17" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6586,28 +6130,16 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>142</v>
       </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="E18" s="2">
         <v>105000</v>
       </c>
-      <c r="H18" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I18" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6615,28 +6147,16 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="2">
+      <c r="E19" s="2">
         <v>115000</v>
       </c>
-      <c r="H19" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I19" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6644,28 +6164,16 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="2">
+      <c r="E20" s="2">
         <v>125000</v>
       </c>
-      <c r="H20" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I20" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6673,28 +6181,16 @@
         <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="2">
+      <c r="E21" s="2">
         <v>135000</v>
       </c>
-      <c r="H21" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I21" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6702,28 +6198,16 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>142</v>
       </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="E22" s="2">
         <v>145000</v>
       </c>
-      <c r="H22" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I22" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6731,28 +6215,16 @@
         <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="2">
+      <c r="E23" s="2">
         <v>155000</v>
       </c>
-      <c r="H23" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I23" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6760,28 +6232,16 @@
         <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="2">
+      <c r="E24" s="2">
         <v>165000</v>
       </c>
-      <c r="H24" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I24" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6789,57 +6249,33 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="2">
+      <c r="E25" s="2">
         <v>175000</v>
       </c>
-      <c r="H25" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I25" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="2">
+      <c r="E26" s="2">
         <v>185000</v>
       </c>
-      <c r="H26" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I26" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6847,28 +6283,16 @@
         <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>142</v>
       </c>
-      <c r="E27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="E27" s="2">
         <v>195000</v>
       </c>
-      <c r="H27" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I27" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6876,28 +6300,16 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" t="s">
         <v>88</v>
       </c>
-      <c r="G28" s="2">
+      <c r="E28" s="2">
         <v>205000</v>
       </c>
-      <c r="H28" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I28" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6905,551 +6317,309 @@
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="2">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="2">
+        <v>235000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="F29" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="2">
-        <v>225000</v>
-      </c>
-      <c r="H29" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I29" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="2">
-        <v>225000</v>
-      </c>
-      <c r="H30" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I30" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>29</v>
-      </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="2">
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" t="s">
         <v>59</v>
       </c>
-      <c r="F31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="2">
-        <v>235000</v>
-      </c>
-      <c r="H31" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I31" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="2">
+        <v>255000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="2">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
         <v>142</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" s="2">
+        <v>275000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="F32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="2">
-        <v>245000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I32" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" t="s">
-        <v>199</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="2">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="2">
+        <v>295000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="2">
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="F33" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="2">
-        <v>255000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I33" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="2">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="2">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="F34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G34" s="2">
-        <v>265000</v>
-      </c>
-      <c r="H34" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I34" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="2">
+        <v>335000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="2">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="2">
+        <v>355000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
         <v>30</v>
       </c>
-      <c r="F35" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="2">
-        <v>275000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I35" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="2">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
         <v>59</v>
       </c>
-      <c r="F36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="2">
-        <v>285000</v>
-      </c>
-      <c r="H36" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I36" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" t="s">
-        <v>206</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D44" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="2">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
         <v>30</v>
       </c>
-      <c r="F37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="2">
-        <v>295000</v>
-      </c>
-      <c r="H37" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I37" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" t="s">
-        <v>160</v>
-      </c>
-      <c r="G38" s="2">
-        <v>305000</v>
-      </c>
-      <c r="H38" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I38" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="2">
+        <v>395000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
         <v>59</v>
       </c>
-      <c r="F39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" s="2">
-        <v>315000</v>
-      </c>
-      <c r="H39" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I39" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="2">
-        <v>325000</v>
-      </c>
-      <c r="H40" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I40" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
-        <v>211</v>
-      </c>
-      <c r="D41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G41" s="2">
-        <v>335000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I41" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" t="s">
-        <v>214</v>
-      </c>
-      <c r="E42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="2">
-        <v>345000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I42" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="2">
-        <v>355000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I43" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" t="s">
-        <v>217</v>
-      </c>
-      <c r="E44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="2">
-        <v>365000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I44" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45" t="s">
-        <v>219</v>
-      </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="2">
-        <v>375000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I45" s="3">
-        <v>40972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" t="s">
-        <v>220</v>
-      </c>
       <c r="D46" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="2">
-        <v>395000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I46" s="3">
-        <v>43862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>222</v>
-      </c>
-      <c r="D47" t="s">
-        <v>223</v>
-      </c>
-      <c r="E47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="2">
+      <c r="E46" s="2">
         <v>405000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>44391</v>
-      </c>
-      <c r="I47" s="3">
-        <v>43862</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>